--- a/assets/Data Collections/Beaches.xlsx
+++ b/assets/Data Collections/Beaches.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TrekBuddy\assets\Data Collections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\TrekBuddy\assets\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD76DE21-7BB2-4940-A70F-049716AEDFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FCEC81-D12F-4DB7-833E-388C529F70DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="16305" firstSheet="1" activeTab="1" xr2:uid="{37E7D56D-6777-4D1B-80CD-EA7A4F836EB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{37E7D56D-6777-4D1B-80CD-EA7A4F836EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="All Temples " sheetId="1" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>Deity / Denomination</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Timings</t>
   </si>
   <si>
-    <t>Beach Type (Swimming allowed / Not allowed / Surfing / Sunset point etc.)</t>
-  </si>
-  <si>
     <t>Safety Level + Lifeguard availability</t>
   </si>
   <si>
@@ -109,23 +106,268 @@
     <t>Contact (Beach authority if available)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sand Type (Golden/White/Black) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(optional but nice)</t>
-    </r>
-  </si>
-  <si>
     <t>Beach Name</t>
+  </si>
+  <si>
+    <t>Promenade Beach</t>
+  </si>
+  <si>
+    <t>White Town</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Promenade+Beach+Puducherry</t>
+  </si>
+  <si>
+    <t>24x7</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Sunrise / Sunset point (No swimming)</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>High safety, Police patrol</t>
+  </si>
+  <si>
+    <t>Food stalls, Parking, Seating</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Early morning, Evening</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Historic French-era beachfront</t>
+  </si>
+  <si>
+    <t>Tourism Dept</t>
+  </si>
+  <si>
+    <t>Paradise Beach</t>
+  </si>
+  <si>
+    <t>Chunnambar</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Paradise+Beach+Puducherry</t>
+  </si>
+  <si>
+    <t>8:00 AM – 5:00 PM</t>
+  </si>
+  <si>
+    <t>Boat fee applicable</t>
+  </si>
+  <si>
+    <t>Swimming allowed</t>
+  </si>
+  <si>
+    <t>Moderate safety, Lifeguards available</t>
+  </si>
+  <si>
+    <t>Food stalls, Washroom, Changing room</t>
+  </si>
+  <si>
+    <t>Boating</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Accessible only by boat</t>
+  </si>
+  <si>
+    <t>Serenity Beach</t>
+  </si>
+  <si>
+    <t>Kottakuppam</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Serenity+Beach+Puducherry</t>
+  </si>
+  <si>
+    <t>5:00 AM – 8:00 PM</t>
+  </si>
+  <si>
+    <t>Surfing, Swimming (with caution)</t>
+  </si>
+  <si>
+    <t>Moderate safety, Lifeguards limited</t>
+  </si>
+  <si>
+    <t>Cafes, Parking</t>
+  </si>
+  <si>
+    <t>Surfing</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Popular among surfers</t>
+  </si>
+  <si>
+    <t>Local Panchayat</t>
+  </si>
+  <si>
+    <t>Auroville Beach</t>
+  </si>
+  <si>
+    <t>Auroville</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Auroville+Beach</t>
+  </si>
+  <si>
+    <t>5:00 AM – 7:00 PM</t>
+  </si>
+  <si>
+    <t>Swimming not advised</t>
+  </si>
+  <si>
+    <t>Low safety, No lifeguards</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Rocky shoreline</t>
+  </si>
+  <si>
+    <t>Local authority</t>
+  </si>
+  <si>
+    <t>Reppo Beach</t>
+  </si>
+  <si>
+    <t>Kalapet</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Reppo+Beach+Puducherry</t>
+  </si>
+  <si>
+    <t>6:00 AM – 6:00 PM</t>
+  </si>
+  <si>
+    <t>Sunset point</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>Quiet and less crowded</t>
+  </si>
+  <si>
+    <t>Veerampattinam Beach</t>
+  </si>
+  <si>
+    <t>Veerampattinam</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Veerampattinam+Beach</t>
+  </si>
+  <si>
+    <t>Fishing village beach</t>
+  </si>
+  <si>
+    <t>Food stalls, Parking</t>
+  </si>
+  <si>
+    <t>Boating (seasonal)</t>
+  </si>
+  <si>
+    <t>Famous fishing village</t>
+  </si>
+  <si>
+    <t>Village Council</t>
+  </si>
+  <si>
+    <t>Chunnambar Backwater</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Chunnambar+Backwater</t>
+  </si>
+  <si>
+    <t>9:00 AM – 5:00 PM</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Backwater recreation</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>High safety, Staff present</t>
+  </si>
+  <si>
+    <t>Parking, Washroom</t>
+  </si>
+  <si>
+    <t>Boating, Kayaking</t>
+  </si>
+  <si>
+    <t>Backwater boating point</t>
+  </si>
+  <si>
+    <t>Quiet Healing Centre Beach</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Quiet+Healing+Centre+Beach</t>
+  </si>
+  <si>
+    <t>5:00 AM – 6:00 PM</t>
+  </si>
+  <si>
+    <t>Meditation, Quiet beach</t>
+  </si>
+  <si>
+    <t>Low safety</t>
+  </si>
+  <si>
+    <t>Spiritual calm zone</t>
+  </si>
+  <si>
+    <t>Beach Type (Swimming allowed / Not allowed / Surfing / Sunset point etc)</t>
+  </si>
+  <si>
+    <t>Sand Type (Golden/White/Black) (optional but nice)</t>
+  </si>
+  <si>
+    <t>https://share.google/cufUPq1pFpQnO1INU</t>
+  </si>
+  <si>
+    <t>https://share.google/hPSsLE5YBXTTZgpSS</t>
+  </si>
+  <si>
+    <t>https://share.google/IhX8b6UxiPDdYuJyn</t>
+  </si>
+  <si>
+    <t>https://share.google/2KKU7Oos4cmQhSVZM</t>
+  </si>
+  <si>
+    <t>https://share.google/y08xVGFWd91FmALLt</t>
+  </si>
+  <si>
+    <t>https://share.google/o1W64zcpUSEo3O14L</t>
+  </si>
+  <si>
+    <t>https://share.google/KfF4QMlDHHCFpBvmE</t>
+  </si>
+  <si>
+    <t>https://share.google/0mnGokUEaCO6Nkyyx</t>
   </si>
 </sst>
 </file>
@@ -156,12 +398,12 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,10 +423,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,8 +438,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,25 +761,25 @@
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" customWidth="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" customWidth="1"/>
+    <col min="9" max="9" width="41.109375" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1"/>
     <col min="15" max="15" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -587,35 +833,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8F495-046F-40CA-9359-31D115372C31}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="76.28515625" customWidth="1"/>
-    <col min="7" max="7" width="54" customWidth="1"/>
-    <col min="8" max="8" width="48.7109375" customWidth="1"/>
-    <col min="9" max="9" width="65" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="32.28515625" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" customWidth="1"/>
-    <col min="15" max="15" width="38" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="71.77734375" customWidth="1"/>
+    <col min="7" max="7" width="51.44140625" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" customWidth="1"/>
+    <col min="9" max="9" width="62" customWidth="1"/>
+    <col min="10" max="10" width="53.5546875" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="40.88671875" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" customWidth="1"/>
+    <col min="15" max="15" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -630,37 +876,424 @@
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>26</v>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{C2AAD20A-BF57-4D3C-9F7D-B395691A1E24}"/>
+    <hyperlink ref="M4" r:id="rId2" xr:uid="{5DB48D77-B8EF-4547-BC3B-3BA3A5B5E142}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{D5F7465D-BE7A-4130-97BA-CC42488CD6E2}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{4DEEEE5A-8227-4B8D-B308-5C52C3D2D20C}"/>
+    <hyperlink ref="M6" r:id="rId5" xr:uid="{6B76C9E5-3C1A-46C8-828E-CBD0FA7F89B5}"/>
+    <hyperlink ref="M8" r:id="rId6" xr:uid="{43D2DFD2-C413-452E-BB22-00752151B178}"/>
+    <hyperlink ref="M7" r:id="rId7" xr:uid="{06B23072-D9E7-4477-B831-5AF4211644F5}"/>
+    <hyperlink ref="M9" r:id="rId8" xr:uid="{2E829E21-D6B1-44E4-97FB-97EEE07C85AF}"/>
+    <hyperlink ref="C2:C9" r:id="rId9" display="https://maps.google.com/?q=Promenade+Beach+Puducherry" xr:uid="{BCE36F69-C82A-4183-AB0C-0104F4129583}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>